--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_19.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_19.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_5</t>
+          <t>model_1_19_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9993515353124556</v>
+        <v>0.9481545215214402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8246255711332744</v>
+        <v>0.7174079251208147</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8127318134859173</v>
+        <v>0.7736492068372176</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9979562191863414</v>
+        <v>0.9038667307143581</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002699251573857179</v>
+        <v>0.1664388753922862</v>
       </c>
       <c r="G2" t="n">
-        <v>1.172729613356787</v>
+        <v>1.889694505933969</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6698474447275333</v>
+        <v>0.8096436625701944</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003359422802135792</v>
+        <v>0.1317507798280019</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1609987150018318</v>
+        <v>1.132683518852144</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05195432199400912</v>
+        <v>0.4079692088776875</v>
       </c>
       <c r="L2" t="n">
-        <v>1.041501740002843</v>
+        <v>0.9294019016462165</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0527725506301465</v>
+        <v>0.4143943160979208</v>
       </c>
       <c r="N2" t="n">
-        <v>141.8295614785303</v>
+        <v>37.5862543034516</v>
       </c>
       <c r="O2" t="n">
-        <v>283.1647340217467</v>
+        <v>74.55083789167743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_4</t>
+          <t>model_1_19_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9993437699295333</v>
+        <v>0.9481703138914169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8245979980263082</v>
+        <v>0.717375109262741</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8127840576589427</v>
+        <v>0.7733634429870244</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9979959739575424</v>
+        <v>0.9054408725318557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002731575187581832</v>
+        <v>0.1663881773492583</v>
       </c>
       <c r="G3" t="n">
-        <v>1.172913994850032</v>
+        <v>1.889913945728012</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6696605703499126</v>
+        <v>0.8106658232927954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003294076712196098</v>
+        <v>0.1295934162684734</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1627161864737988</v>
+        <v>1.13273666998078</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05226447347464463</v>
+        <v>0.407907069501447</v>
       </c>
       <c r="L3" t="n">
-        <v>1.041998724509867</v>
+        <v>0.9294234061500145</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05308758668656428</v>
+        <v>0.4143311980886211</v>
       </c>
       <c r="N3" t="n">
-        <v>141.8057536887856</v>
+        <v>37.58686360540591</v>
       </c>
       <c r="O3" t="n">
-        <v>283.140926232002</v>
+        <v>74.55144719363173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_0</t>
+          <t>model_1_19_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999273103509446</v>
+        <v>0.9481823887250423</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8244795452371919</v>
+        <v>0.7173382710320652</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8120601977896549</v>
+        <v>0.7730732811444088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981996406305106</v>
+        <v>0.9070005184429238</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003025726047765076</v>
+        <v>0.1663494136655552</v>
       </c>
       <c r="G4" t="n">
-        <v>1.173706089196278</v>
+        <v>1.890160283146165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6722497751305483</v>
+        <v>0.8117037153792812</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002959303794947872</v>
+        <v>0.1274559193689535</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1761958872456346</v>
+        <v>1.132788341801456</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05500660003822337</v>
+        <v>0.4078595513967464</v>
       </c>
       <c r="L4" t="n">
-        <v>1.046521375395457</v>
+        <v>0.9294398484766534</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05587289900239847</v>
+        <v>0.4142829316212722</v>
       </c>
       <c r="N4" t="n">
-        <v>141.6012084010168</v>
+        <v>37.58732960245494</v>
       </c>
       <c r="O4" t="n">
-        <v>282.9363809442332</v>
+        <v>74.55191319068076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_3</t>
+          <t>model_1_19_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9993041477401858</v>
+        <v>0.9481907365138879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8244732762921142</v>
+        <v>0.7172973130711024</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8123450647801773</v>
+        <v>0.7727788066686557</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9979703254146952</v>
+        <v>0.908545906489124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00289650360852764</v>
+        <v>0.166322614865964</v>
       </c>
       <c r="G5" t="n">
-        <v>1.173748009660878</v>
+        <v>1.890434169219717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6712308224229868</v>
+        <v>0.8127570335044385</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003336235978545239</v>
+        <v>0.1253379628931493</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1688548561457955</v>
+        <v>1.132843581942738</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05381917510077278</v>
+        <v>0.4078266970981227</v>
       </c>
       <c r="L5" t="n">
-        <v>1.044534544628107</v>
+        <v>0.9294512156784855</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05466677330917249</v>
+        <v>0.4142495599002875</v>
       </c>
       <c r="N5" t="n">
-        <v>141.6885018432098</v>
+        <v>37.58765182731727</v>
       </c>
       <c r="O5" t="n">
-        <v>283.0236743864263</v>
+        <v>74.55223541554309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_1</t>
+          <t>model_1_19_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9992823140434846</v>
+        <v>0.9481952143418348</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8244562589265775</v>
+        <v>0.7172521952683359</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8120976881392287</v>
+        <v>0.7724798986723025</v>
       </c>
       <c r="E6" t="n">
-        <v>0.998164446313241</v>
+        <v>0.9100767223319352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002987386953937658</v>
+        <v>0.166308239752269</v>
       </c>
       <c r="G6" t="n">
-        <v>1.17386180486258</v>
+        <v>1.890735872174565</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6721156743239383</v>
+        <v>0.8138262100757127</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003017153732255737</v>
+        <v>0.1232399776424433</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1746226693536254</v>
+        <v>1.132902144521998</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05465699364159776</v>
+        <v>0.4078090726703724</v>
       </c>
       <c r="L6" t="n">
-        <v>1.045931901216989</v>
+        <v>0.9294573131463283</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05551778665450419</v>
+        <v>0.414231657905418</v>
       </c>
       <c r="N6" t="n">
-        <v>141.6267124042532</v>
+        <v>37.58782469298508</v>
       </c>
       <c r="O6" t="n">
-        <v>282.9618849474696</v>
+        <v>74.5524082812109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_2</t>
+          <t>model_1_19_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9992891412264086</v>
+        <v>0.9481958188684142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8244212862019289</v>
+        <v>0.7172028647273624</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8121028018971181</v>
+        <v>0.7721765587132615</v>
       </c>
       <c r="E7" t="n">
-        <v>0.998136748771466</v>
+        <v>0.9115932434538563</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002958968622752186</v>
+        <v>0.1663062990483358</v>
       </c>
       <c r="G7" t="n">
-        <v>1.17409566763334</v>
+        <v>1.891065745729201</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6720973827084804</v>
+        <v>0.8149112395205407</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003062680998575175</v>
+        <v>0.1211615833266829</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1728444827680256</v>
+        <v>1.132955917391276</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05439640266370734</v>
+        <v>0.4078066932363124</v>
       </c>
       <c r="L7" t="n">
-        <v>1.045494961509853</v>
+        <v>0.9294581363314576</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05525309162920741</v>
+        <v>0.4142292409976501</v>
       </c>
       <c r="N7" t="n">
-        <v>141.6458290192486</v>
+        <v>37.58784803175963</v>
       </c>
       <c r="O7" t="n">
-        <v>282.9810015624649</v>
+        <v>74.55243161998546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_9</t>
+          <t>model_1_19_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994104556160912</v>
+        <v>0.9481923497006719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8242830051244754</v>
+        <v>0.7171492025893181</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8140663134588362</v>
+        <v>0.7718687493966816</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9971185841604616</v>
+        <v>0.9130948523947517</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002453994236988117</v>
+        <v>0.1663174360730969</v>
       </c>
       <c r="G8" t="n">
-        <v>1.175020353834997</v>
+        <v>1.891424584693395</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6650740157031567</v>
+        <v>0.8160122555981374</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004736268199158008</v>
+        <v>0.1191036261758463</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1342797641325208</v>
+        <v>1.133007755944363</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04953780613822253</v>
+        <v>0.4078203477918885</v>
       </c>
       <c r="L8" t="n">
-        <v>1.037730840570163</v>
+        <v>0.9294534123583618</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05031797706526089</v>
+        <v>0.414243110598827</v>
       </c>
       <c r="N8" t="n">
-        <v>142.0200765622236</v>
+        <v>37.58771410235424</v>
       </c>
       <c r="O8" t="n">
-        <v>283.35524910544</v>
+        <v>74.55229769058006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_7</t>
+          <t>model_1_19_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993733056554109</v>
+        <v>0.9481847730024773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8242225951996205</v>
+        <v>0.7170911533213231</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8138229551937962</v>
+        <v>0.7715562597377392</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9973718021144092</v>
+        <v>0.9145816155114167</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002608631940106038</v>
+        <v>0.1663417594502499</v>
       </c>
       <c r="G9" t="n">
-        <v>1.175424315280664</v>
+        <v>1.89181276041577</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6659444941064816</v>
+        <v>0.8171300129889829</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004320046379911567</v>
+        <v>0.1170660152478533</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1476923300295146</v>
+        <v>1.133057525584419</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05107476813560722</v>
+        <v>0.4078501678928794</v>
       </c>
       <c r="L9" t="n">
-        <v>1.0401084380537</v>
+        <v>0.9294430951523095</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05187914467770606</v>
+        <v>0.4142734003365994</v>
       </c>
       <c r="N9" t="n">
-        <v>141.8978587118936</v>
+        <v>37.58742163032854</v>
       </c>
       <c r="O9" t="n">
-        <v>283.2330312551099</v>
+        <v>74.55200521855436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_6</t>
+          <t>model_1_19_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993657561855934</v>
+        <v>0.9481729974946945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.824200842130329</v>
+        <v>0.717028693464731</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8137937693643728</v>
+        <v>0.7712392665933844</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9973555833669467</v>
+        <v>0.916053442536136</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002640056809768251</v>
+        <v>0.1663795622120345</v>
       </c>
       <c r="G10" t="n">
-        <v>1.17556977815518</v>
+        <v>1.892230429764402</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6660488901260377</v>
+        <v>0.8182638790860216</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004346705613467074</v>
+        <v>0.1150488742547336</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1493325579395607</v>
+        <v>1.133102452616098</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05138148314099401</v>
+        <v>0.4078965091932444</v>
       </c>
       <c r="L10" t="n">
-        <v>1.040591604122021</v>
+        <v>0.9294270604183075</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05219069013782517</v>
+        <v>0.4143204714661207</v>
       </c>
       <c r="N10" t="n">
-        <v>141.8739096864077</v>
+        <v>37.58696716276681</v>
       </c>
       <c r="O10" t="n">
-        <v>283.2090822296241</v>
+        <v>74.55155075099263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_8</t>
+          <t>model_1_19_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993811393878596</v>
+        <v>0.9481568853261273</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8241481256368929</v>
+        <v>0.7169616311561097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8136234705972063</v>
+        <v>0.7709176250150418</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9973690958119155</v>
+        <v>0.9175099295595138</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002576023819652625</v>
+        <v>0.1664312869003805</v>
       </c>
       <c r="G11" t="n">
-        <v>1.175922293589524</v>
+        <v>1.892678875730947</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6666580389417021</v>
+        <v>0.8194143723619025</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004324494809139687</v>
+        <v>0.113052756754878</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1454755129484707</v>
+        <v>1.133143195065751</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05075454481770697</v>
+        <v>0.4079599084473626</v>
       </c>
       <c r="L11" t="n">
-        <v>1.039607079176989</v>
+        <v>0.9294051204440883</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05155387816265476</v>
+        <v>0.4143848691951154</v>
       </c>
       <c r="N11" t="n">
-        <v>141.9230164480464</v>
+        <v>37.58634549206226</v>
       </c>
       <c r="O11" t="n">
-        <v>283.2581889912628</v>
+        <v>74.55092908028809</v>
       </c>
     </row>
   </sheetData>
